--- a/biology/Botanique/Zalema/Zalema.xlsx
+++ b/biology/Botanique/Zalema/Zalema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le zalema est un cépage blanc espagnol. Il est essentiellement cultivé en Andalousie.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage est originaire de la région de Huelva en Andalousie. Il est resté cultivé dans cette zone, mais a très peu voyagé. Il est à noter que ce cépage a résisté au phylloxéra qui ravagea la région de Huelva à partir de 1908. Cette résistance au phylloxéra le rendit populaire et provoqua sa multiplication dans la région de Huelva.
 </t>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom viendrait de l'arabe assalám ‘alík, la paix soit avec toi, mode de salutation à l'époque hispano-arabe.
 </t>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,10 +620,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-Le zalema est un cépage rustique et très productif.
-Technologiques
-Il donne un vin sec, fruité et frais, de couleur jaune paille à jaune vert et aromatique en bouche. Ce sont des vins légers pour éviter le phénomène d'oxydation auquel il est sensible. Il permet aussi d'élaborer des vins effervescents et vins mutés.
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le zalema est un cépage rustique et très productif.
 </t>
         </is>
       </c>
@@ -631,10 +652,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il donne un vin sec, fruité et frais, de couleur jaune paille à jaune vert et aromatique en bouche. Ce sont des vins légers pour éviter le phénomène d'oxydation auquel il est sensible. Il permet aussi d'élaborer des vins effervescents et vins mutés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Zalema</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zalema</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
